--- a/evaluation/results/Thesis.xlsx
+++ b/evaluation/results/Thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina-\Google Drive\PhD\Experiments\analysis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB95F5-794E-4DE9-BB2F-20E3D22AD613}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67DEBF-21CF-4C18-9A87-C0320B1DB1B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1397" yWindow="1920" windowWidth="24686" windowHeight="13149" tabRatio="782" firstSheet="14" activeTab="17" xr2:uid="{87B01D8B-37C4-4326-8181-A3BE4A78FA3B}"/>
+    <workbookView xWindow="1740" yWindow="2263" windowWidth="24686" windowHeight="13148" tabRatio="782" firstSheet="17" activeTab="17" xr2:uid="{87B01D8B-37C4-4326-8181-A3BE4A78FA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="findbugs_16w" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,21 @@
     <sheet name="imdb2files_3.0 (TR-1950X)" sheetId="28" r:id="rId15"/>
     <sheet name="imdb2files_0.1 (i7-8550U)" sheetId="30" r:id="rId16"/>
     <sheet name="imdb2files_0.2 (i7-8550U)" sheetId="31" r:id="rId17"/>
-    <sheet name="java_findbugs_0.2 (3700X)" sheetId="33" r:id="rId18"/>
-    <sheet name="java_findbugs_0.5 (3700X)" sheetId="32" r:id="rId19"/>
-    <sheet name="Simulink (i5-8500)" sheetId="5" r:id="rId20"/>
-    <sheet name="imdb_atLeastN_2.0 (3700X)" sheetId="6" r:id="rId21"/>
-    <sheet name="imdb_atLeastN_1.0 (3700X)" sheetId="7" r:id="rId22"/>
-    <sheet name="dblp_mapBy (3700X)" sheetId="11" r:id="rId23"/>
-    <sheet name="imdb_select_1.5 (3700X)" sheetId="8" r:id="rId24"/>
-    <sheet name="imdb_select_2.0 (E5520)" sheetId="10" r:id="rId25"/>
-    <sheet name="imdb_selectOne_all (E5520)" sheetId="15" r:id="rId26"/>
-    <sheet name="imdb_select_all (1950X)" sheetId="16" r:id="rId27"/>
-    <sheet name="imdb_selectOne_all (1950X)" sheetId="17" r:id="rId28"/>
-    <sheet name="imdb_atLeastN_all (1950X)" sheetId="18" r:id="rId29"/>
-    <sheet name="imdb_selectOne_1.0 (3700X)" sheetId="13" r:id="rId30"/>
-    <sheet name="dblp_atMostN (3700X)" sheetId="14" r:id="rId31"/>
-    <sheet name="imdb_select_1.0 (8550U)" sheetId="12" r:id="rId32"/>
-    <sheet name="imdb_select_1.0 (3700X)" sheetId="9" r:id="rId33"/>
+    <sheet name="java_findbugs_local (3700X)" sheetId="33" r:id="rId18"/>
+    <sheet name="Simulink (i5-8500)" sheetId="5" r:id="rId19"/>
+    <sheet name="imdb_atLeastN_2.0 (3700X)" sheetId="6" r:id="rId20"/>
+    <sheet name="imdb_atLeastN_1.0 (3700X)" sheetId="7" r:id="rId21"/>
+    <sheet name="dblp_mapBy (3700X)" sheetId="11" r:id="rId22"/>
+    <sheet name="imdb_select_1.5 (3700X)" sheetId="8" r:id="rId23"/>
+    <sheet name="imdb_select_2.0 (E5520)" sheetId="10" r:id="rId24"/>
+    <sheet name="imdb_selectOne_all (E5520)" sheetId="15" r:id="rId25"/>
+    <sheet name="imdb_select_all (1950X)" sheetId="16" r:id="rId26"/>
+    <sheet name="imdb_selectOne_all (1950X)" sheetId="17" r:id="rId27"/>
+    <sheet name="imdb_atLeastN_all (1950X)" sheetId="18" r:id="rId28"/>
+    <sheet name="imdb_selectOne_1.0 (3700X)" sheetId="13" r:id="rId29"/>
+    <sheet name="dblp_atMostN (3700X)" sheetId="14" r:id="rId30"/>
+    <sheet name="imdb_select_1.0 (8550U)" sheetId="12" r:id="rId31"/>
+    <sheet name="imdb_select_1.0 (3700X)" sheetId="9" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
   <si>
     <t>1m</t>
   </si>
@@ -430,6 +429,15 @@
   <si>
     <t>Distributed Local (3 workers)</t>
   </si>
+  <si>
+    <t>Distributed Local (7 workers)</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -641,6 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77AF4E4A-B1C3-4390-A84E-0E4823BD4751}" type="CELLRANGE">
+                    <a:fld id="{942C7667-C672-4092-BAFE-BC88655BF39C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -743,7 +752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FB1EF61-D2F9-41E1-92A6-E97777468F8D}" type="CELLRANGE">
+                    <a:fld id="{84DE2BDC-D617-4A57-89CB-78979DD3AFC1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -776,7 +785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B62DCF16-D236-4321-AA55-D38B78A2497A}" type="CELLRANGE">
+                    <a:fld id="{AE91D1B1-06C8-4CED-8FA3-0C86A48679F7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -809,7 +818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05247F66-289D-47F4-B307-4E275C4AA042}" type="CELLRANGE">
+                    <a:fld id="{64C276E5-1ACC-404A-8566-667EF63E092B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -991,7 +1000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{708803A2-2784-4591-A591-1476A205F115}" type="CELLRANGE">
+                    <a:fld id="{91DF4946-551D-4AE9-B6D9-A87560E5A17F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1023,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DDDE4BF-1AE0-40EC-914B-6A4AB1C7F0FD}" type="CELLRANGE">
+                    <a:fld id="{2E982A74-798F-4D04-8031-6EDD321EB1B1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1056,7 +1065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3D5460F-8F28-47B8-9566-DC25BEE5F307}" type="CELLRANGE">
+                    <a:fld id="{51A937B3-7C86-436E-8FF9-6C48BACF707A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1089,7 +1098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0A8460B-4A8F-41E4-AB61-4E4606BBB6F2}" type="CELLRANGE">
+                    <a:fld id="{84D634B2-4BA8-4A2E-B0C9-8ABF13742227}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1271,7 +1280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2E872F6-02ED-464F-A689-41E3E3654F15}" type="CELLRANGE">
+                    <a:fld id="{DEA397E0-6BFB-4860-8B69-24E74BE23428}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1303,7 +1312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5359D1EC-5D3A-4F04-A7D4-12A8CFB4FD03}" type="CELLRANGE">
+                    <a:fld id="{DD354239-5B9F-4852-A636-804A99B35684}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1336,7 +1345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEA92B66-E8EE-4FAB-A6CB-A9134D96D814}" type="CELLRANGE">
+                    <a:fld id="{CBE84B6A-F636-4581-8CF7-FA2FA17B3541}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1369,7 +1378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19455DED-E8F0-43D0-A4A4-C4D4B8318348}" type="CELLRANGE">
+                    <a:fld id="{3F6FB69B-917E-4F2C-AE02-089EAA55DFCF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1855,7 +1864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19A5A282-6EF6-4682-AEC8-11C76495A508}" type="CELLRANGE">
+                    <a:fld id="{BC86B51C-0042-4940-8214-02971993D1BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1888,7 +1897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9FBB97D-2B8F-4EFE-A263-2B4B347CAD06}" type="CELLRANGE">
+                    <a:fld id="{DA351EB3-FADA-4A7A-A829-A3E458D83512}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1922,7 +1931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7072038-9B1C-40FE-8B1A-AF81D3BB0A92}" type="CELLRANGE">
+                    <a:fld id="{BBF1ECEF-66F8-4071-A2A6-ED900C73E1D5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1956,7 +1965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B393DD56-D642-4981-BEA4-AD23E5FFCC0A}" type="CELLRANGE">
+                    <a:fld id="{9237BFE9-F5FB-46F4-A35B-7618AA60F3B5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1990,7 +1999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E928B752-9AB5-441A-A211-C97303B0CB34}" type="CELLRANGE">
+                    <a:fld id="{DC3480D5-E633-4B93-A6FC-512509D6AF52}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2024,7 +2033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B79EB24D-D6AA-4022-8E2A-D6C6FCACD669}" type="CELLRANGE">
+                    <a:fld id="{B8772B8E-CEFA-40E6-97B9-EDB93F858F31}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2058,7 +2067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC7B6746-33E5-4F45-9D99-B1453ED05CD6}" type="CELLRANGE">
+                    <a:fld id="{8B484964-F9D1-48DF-BFDD-A8B9CC6C780E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2092,7 +2101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6BF2242-31FF-40E5-A90F-61DFEC063C2D}" type="CELLRANGE">
+                    <a:fld id="{72EA775D-ACA4-443D-BC7E-BD42D1500502}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2414,7 +2423,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{FFFBFEFB-5425-4DBC-8949-F4CFEE85031F}" type="CELLRANGE">
+                    <a:fld id="{5225D888-9EEE-442E-B206-8528F271FAFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -2484,7 +2493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6F1E30D-677E-43F6-9066-593C30D1312E}" type="CELLRANGE">
+                    <a:fld id="{30727C59-A7E2-4930-BCBD-05D6F140ABE6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2518,7 +2527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF3A9D68-AAFB-401D-B86B-0EEF9D4ED350}" type="CELLRANGE">
+                    <a:fld id="{DD0E3982-9044-4B2B-966D-D26D62BA9599}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2552,7 +2561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A4903FA-B3B1-4BD1-B855-3F1C554A72DC}" type="CELLRANGE">
+                    <a:fld id="{59D97097-CD1C-4723-98F5-506195401E70}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2586,7 +2595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{472EBB9F-FBD9-42F6-BCD3-BD33FA3A62E6}" type="CELLRANGE">
+                    <a:fld id="{B4FDAB2E-2E63-4334-813C-0186B6BC0750}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2620,7 +2629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C2860C5-1AC3-4A55-BA45-8C319C16DF7D}" type="CELLRANGE">
+                    <a:fld id="{AFCB7A50-19D0-45FB-90C2-F03A83679EC8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2654,7 +2663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE8BB85E-2EAD-48F0-A96F-16C210FAFE05}" type="CELLRANGE">
+                    <a:fld id="{6BB73AE6-A6A5-42DB-A924-9F208D6747E4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2688,7 +2697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32533069-356C-4524-9F7A-293969289B60}" type="CELLRANGE">
+                    <a:fld id="{CE85EE4E-4B5D-47EF-BD88-2F4D9AA32160}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2988,7 +2997,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DFB7E21-74ED-4BBB-91CC-510B14544A26}" type="CELLRANGE">
+                    <a:fld id="{501A4207-1725-435B-83E3-6C69C5E86B74}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3022,7 +3031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EA3DD46-880B-4E9C-A20F-499123667FE8}" type="CELLRANGE">
+                    <a:fld id="{CBDC26C9-0F78-4D69-BD56-3F491CC9718B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3056,7 +3065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5987138-89E4-48C6-BF8A-F0AE9688CC53}" type="CELLRANGE">
+                    <a:fld id="{D980C355-0F74-4E5F-8ABE-E4A3CEC9156D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3090,7 +3099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28128319-1B1B-4BE7-8C03-FD4FF7E71D1B}" type="CELLRANGE">
+                    <a:fld id="{D6E514A3-C655-4765-824B-B8E74428C1C2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3124,7 +3133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C417946-6832-490B-B206-1AE5468827CA}" type="CELLRANGE">
+                    <a:fld id="{161E2CD3-A5E4-42E4-8C6D-5A5107B7D002}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3158,7 +3167,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4C7A15F-0DDE-40AA-96FF-A5CFC320248D}" type="CELLRANGE">
+                    <a:fld id="{88DBF894-7AAC-4BDD-BCF3-604A0D13866D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3192,7 +3201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FCA850D-3934-491B-A03E-DFA3EF2CD415}" type="CELLRANGE">
+                    <a:fld id="{15684003-A635-4A0A-BA80-DEFFD6C588AB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3804,7 +3813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA1948B6-244D-450A-BC5C-AED01B6C71D4}" type="CELLRANGE">
+                    <a:fld id="{3EB747AE-0205-44EB-9D1D-F74144612EBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3837,7 +3846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F0B4C9E-7538-41EC-956A-5E70F86AF3DD}" type="CELLRANGE">
+                    <a:fld id="{1AA9BDED-F50E-48B7-94F3-E3BFCBFD9539}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3871,7 +3880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{157C6DA5-FDFA-4058-84B8-68168BAFE1B2}" type="CELLRANGE">
+                    <a:fld id="{CC2FEFBB-1BD2-4927-81DE-2F75B7132D82}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3905,7 +3914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4606FF65-5B77-4A58-8785-142A60632968}" type="CELLRANGE">
+                    <a:fld id="{A186B369-6365-47AF-98CB-42661A9D4A93}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3939,7 +3948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06F29934-F476-4C74-B5A8-D34A7D342456}" type="CELLRANGE">
+                    <a:fld id="{AE9123B9-21AB-4899-AADA-336C888739CF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3973,7 +3982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86EDCFD8-6629-48B5-8889-E912DF4A954F}" type="CELLRANGE">
+                    <a:fld id="{7F9EE102-0DD5-4EC1-8DD6-5B1DFD38AC53}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4007,7 +4016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5044E0C8-FBA5-49B0-BE78-2EA65C28C0E2}" type="CELLRANGE">
+                    <a:fld id="{2AFFEA20-13A9-42D5-821B-B1FAB887A59B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4041,7 +4050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58D92489-8048-4F68-A84C-5BB0A1136995}" type="CELLRANGE">
+                    <a:fld id="{BF94EEEC-A75C-4659-BD51-77F783DE51C7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4363,7 +4372,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{09A58D6E-AB3A-49DC-A16F-99173CCEA579}" type="CELLRANGE">
+                    <a:fld id="{8D97ECC1-A3B5-4EDF-B383-A18824CBDC66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -4433,7 +4442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BD6D3F6-AC1D-4CF5-B8F5-AB88D2F3ED20}" type="CELLRANGE">
+                    <a:fld id="{E976CC10-42AB-451C-ABBA-E90D7C364926}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4467,7 +4476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CEEF1B1-975C-48E9-81FD-11F0054087E1}" type="CELLRANGE">
+                    <a:fld id="{4D77B6C5-832F-4394-A38D-33A0E24059E4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4501,7 +4510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95CBB2F0-3E4C-4605-B00F-06F17DDB57A4}" type="CELLRANGE">
+                    <a:fld id="{C5A59A9F-DA99-49D5-B4A7-228DA56149A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4535,7 +4544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AC7691A-6AA8-404D-9E1B-556DE4592F9A}" type="CELLRANGE">
+                    <a:fld id="{1050B2F1-83E9-4BE7-AA91-37735C361DF6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4569,7 +4578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77F6CAF8-CCE2-45F6-B3E2-2C9614CEFAD9}" type="CELLRANGE">
+                    <a:fld id="{3600D915-6136-40E1-B570-9420DA589400}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4603,7 +4612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{778E5C43-7741-4D38-BD33-0079FEC5C906}" type="CELLRANGE">
+                    <a:fld id="{4BC299A2-A648-422B-9FCB-37BFC64461CD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4637,7 +4646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E224A03-C4FB-44E1-8005-98118C3ECB55}" type="CELLRANGE">
+                    <a:fld id="{7D327F77-0BA0-4B35-B718-0040C368D961}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4937,7 +4946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA265238-DEE4-44B7-A7B1-2C0B6F236E7B}" type="CELLRANGE">
+                    <a:fld id="{49CFE9D1-FE03-4369-A02A-FF908D738861}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4971,7 +4980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CF2A5FB-70B1-4F4E-B96D-23B10289CAA1}" type="CELLRANGE">
+                    <a:fld id="{FF5F6198-A95C-48B2-9251-EA4FA9B060EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5005,7 +5014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DB7F38D-0EA1-4592-8209-CCF25AE6806B}" type="CELLRANGE">
+                    <a:fld id="{34EE8399-E427-4231-90AE-64596A83101D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5039,7 +5048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FACC713B-8B18-455E-8B12-83784616C3BA}" type="CELLRANGE">
+                    <a:fld id="{F82F2E9C-63CE-46C2-B20D-E1EC3345C7EF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5073,7 +5082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{113A153A-E52B-4FA7-96EC-5047C4F13C9C}" type="CELLRANGE">
+                    <a:fld id="{804E4976-6AF1-44F3-9C60-F63A3D494F31}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5107,7 +5116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10EA04A2-69BE-4577-8228-60F9FDA8DD72}" type="CELLRANGE">
+                    <a:fld id="{F649C6ED-F9CB-4C44-BF64-E170FEF6FFC3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5141,7 +5150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3142E57-1CC4-46C8-ACCC-AADE6C756623}" type="CELLRANGE">
+                    <a:fld id="{434674F5-3351-4DC7-BE58-BCCE051FDA30}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5756,7 +5765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A34C7CF-6BF5-4076-8600-180B7708D2D7}" type="CELLRANGE">
+                    <a:fld id="{EB682A9D-6BB9-4524-A95D-D732E0A980CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5789,7 +5798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07A79E36-FD76-451F-BC3F-6769EECC5853}" type="CELLRANGE">
+                    <a:fld id="{C92098DF-5C3F-4EED-B4FC-EDBBB1008DB8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5823,7 +5832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C275FA4F-0CA6-4E74-8E01-BC2312833628}" type="CELLRANGE">
+                    <a:fld id="{35C22013-173E-492C-BA53-92093D19775D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5857,7 +5866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{526FD67D-36F3-425D-91AE-1BD882BBC6D3}" type="CELLRANGE">
+                    <a:fld id="{C964BE3A-7669-476F-8B92-1336E51408B8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5891,7 +5900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24097F37-E7BA-4140-91A0-9B5D4F15855B}" type="CELLRANGE">
+                    <a:fld id="{471D2823-2E8F-4E4F-A152-A75A4D89C8FC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5925,7 +5934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C06199AB-C723-43AD-9137-5C997D6BD93D}" type="CELLRANGE">
+                    <a:fld id="{905B3BE8-6CF8-4BE9-87FB-C016A19E2357}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5959,7 +5968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B7451D9-B55D-4286-B1BC-C5AED9CA9A10}" type="CELLRANGE">
+                    <a:fld id="{C895115D-8EA0-4F9D-9A3B-C95F083CB35E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5993,7 +6002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AF63B50-703D-4066-89B4-A15654ADCC4F}" type="CELLRANGE">
+                    <a:fld id="{D74E1F97-6502-4CFD-AC5B-C31578F14A6E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6303,7 +6312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75151899-F163-426A-8B6F-74BB19A5B90D}" type="CELLRANGE">
+                    <a:fld id="{AEFA2868-771B-449E-B1D2-5BCC004C0D78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6342,7 +6351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27AD06C2-DA80-4733-8181-9F404ACADEAC}" type="CELLRANGE">
+                    <a:fld id="{1AF79D60-F78F-4D46-B707-062A89513B86}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6376,7 +6385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A508913C-0CAC-4F75-BE71-B121859876D5}" type="CELLRANGE">
+                    <a:fld id="{E391E074-6156-46C5-B766-5E0D5A9CF3E4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6410,7 +6419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63227E0E-1C94-4C0A-A7C0-8935E2BFB7BB}" type="CELLRANGE">
+                    <a:fld id="{0169CA26-36A7-4D62-A303-4FF84424A2B9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6444,7 +6453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAB8AAA3-C1E1-4D9B-ABAD-E0E320DD354F}" type="CELLRANGE">
+                    <a:fld id="{7432ED00-6C0A-411D-8E3B-EFC631CB96C4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6478,7 +6487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD156934-122A-40FE-A603-44C5F48F3EE5}" type="CELLRANGE">
+                    <a:fld id="{B84A4492-4620-4A62-B223-666ADBDBFCE5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6512,7 +6521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C770D30-AD98-4459-9C97-BE67A5AB8C24}" type="CELLRANGE">
+                    <a:fld id="{F1F99357-37D6-4C64-A15B-1C0D12F8E32B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6546,7 +6555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC564417-1C4C-4735-A8D9-035B650655CE}" type="CELLRANGE">
+                    <a:fld id="{A6F42ECB-8448-446A-97B8-5CF33E52CC6D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6850,7 +6859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78311869-4347-4BCC-91CB-E8B2F35143E7}" type="CELLRANGE">
+                    <a:fld id="{E7EEB593-643E-479C-A34D-BB28C5EDBFF3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6883,7 +6892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FCB352B-14D0-4E97-9858-526A4965E569}" type="CELLRANGE">
+                    <a:fld id="{0F3FAEAC-FEAF-4FBC-9091-E74B41ED848C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6917,7 +6926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CADD13-E409-404E-B2C8-C9B868EF909D}" type="CELLRANGE">
+                    <a:fld id="{EDCEFEFE-E57E-4EB3-BC46-AAF07512A1FB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6951,7 +6960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6618EE6F-6351-4223-B115-0BD0F5FAFB07}" type="CELLRANGE">
+                    <a:fld id="{141EAE3E-DABC-4CD9-8FB1-215CCEB522C8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6985,7 +6994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD40AF40-32D4-4CA0-8A90-03A421782362}" type="CELLRANGE">
+                    <a:fld id="{AADA4BE2-A413-4EEF-A863-CF34E3C5BB00}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7019,7 +7028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{528FF204-FF18-4001-B2CE-C71F53BDE9D7}" type="CELLRANGE">
+                    <a:fld id="{400330B8-C8A3-40F5-B917-D53F7B335368}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7053,7 +7062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CED1C55E-BCF6-4FAF-8543-9C9FDB52E1A3}" type="CELLRANGE">
+                    <a:fld id="{25F21834-5544-4BC8-9798-3395A9896A78}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7087,7 +7096,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E387643C-E07B-4A9D-AF49-CF39DFC1EA32}" type="CELLRANGE">
+                    <a:fld id="{8B59D3F1-D166-40AE-985E-E965AAAB1F1F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7726,7 +7735,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B093D30E-7F7E-4E70-9B20-8030E8E461D8}" type="CELLRANGE">
+                    <a:fld id="{2FBEE68F-478A-489C-A3E9-D0F3AF6A2E41}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7760,7 +7769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08675353-C39E-4BE8-9DC7-820BB1D1C567}" type="CELLRANGE">
+                    <a:fld id="{588AFA67-69CB-42DF-AF23-4074C57124FD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7794,7 +7803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F760201A-3477-4059-82FE-A501ABE9E8B2}" type="CELLRANGE">
+                    <a:fld id="{5D550B87-A225-4C36-B7B0-A327A9E77D7B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7828,7 +7837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85AEDE5E-D3A6-475D-95AF-3515C70108B2}" type="CELLRANGE">
+                    <a:fld id="{49E83828-BBB5-4120-8DE1-B010F4C8F740}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8175,7 +8184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{986B1F3A-2E41-48BC-A913-57D491B7E69E}" type="CELLRANGE">
+                    <a:fld id="{6E6C711D-FACC-4E46-AE8C-C86F4C54C151}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8209,7 +8218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08CD6062-38D1-49F1-A9FE-D14BD79C1224}" type="CELLRANGE">
+                    <a:fld id="{1AF258B2-2D7A-4FAB-BD79-6CA9139265C5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8243,7 +8252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86922BEC-2820-4407-85EE-54D148CA6D9D}" type="CELLRANGE">
+                    <a:fld id="{7B3E1F22-BF99-412C-8D9D-28421B83BFA0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8277,7 +8286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A36AA94-1A2D-4443-8535-7C75BD7DC755}" type="CELLRANGE">
+                    <a:fld id="{ABA66FC0-3220-4F70-A4DE-3C004DDF8C1D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8869,7 +8878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EB901AC-7C8A-4430-AA49-838AD5F9CCBE}" type="CELLRANGE">
+                    <a:fld id="{0FFC317B-B618-4198-9A3A-3598724C6E30}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8903,7 +8912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{700D37F4-7BFF-4EF6-B962-42B25D772C58}" type="CELLRANGE">
+                    <a:fld id="{CA27EC72-058A-4B97-95E8-327ACAA9EC77}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8937,7 +8946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D25AEC55-04D7-4E19-A45E-8FF719EA9E50}" type="CELLRANGE">
+                    <a:fld id="{BA8CAF3A-BCB6-41C8-909E-A09F8E80C426}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8971,7 +8980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F084A04E-70A3-466A-B5AD-0CE3996416D1}" type="CELLRANGE">
+                    <a:fld id="{640DE27A-C921-481A-BB90-C38F6F867999}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9318,7 +9327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B4648F9-1426-459D-9E8A-152CBC300F58}" type="CELLRANGE">
+                    <a:fld id="{BBFDDB66-DF25-464F-8362-D0CAD818D1A2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9352,7 +9361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F8E3436-CEBE-40C0-B08F-6804AB02B0B3}" type="CELLRANGE">
+                    <a:fld id="{730D01B3-F169-41C5-8A23-7FDC2B3AFB66}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9386,7 +9395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C842F2E-B1F7-449B-86F8-EE21A72A604F}" type="CELLRANGE">
+                    <a:fld id="{DA47A70F-42F3-4FAE-AFB8-D6627ED0A516}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9420,7 +9429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D972364A-8ED7-46B5-9A58-13B6D725EAD0}" type="CELLRANGE">
+                    <a:fld id="{5A8C5FBE-44E9-4B38-BD58-40583BFDCFE5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10433,7 +10442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC809E0A-844F-446B-85A2-C917B24C7CE1}" type="CELLRANGE">
+                    <a:fld id="{B8104B7E-EBD3-47E0-8DEF-F948C89E0195}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10466,7 +10475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{257DE69C-83DA-4FAD-95B2-377F967FAF7B}" type="CELLRANGE">
+                    <a:fld id="{A826A5D8-5A81-44E7-9DC8-964CD44D4B7E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10499,7 +10508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A92A99CD-56A2-4B63-B62C-A16E9CDB31E3}" type="CELLRANGE">
+                    <a:fld id="{DAC082C2-B752-4B39-8BA8-9D49AB95F847}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10532,7 +10541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F412295F-DAC2-4CEA-B61A-36D1F93639C6}" type="CELLRANGE">
+                    <a:fld id="{30B7ED13-F700-466B-8781-E8E4B557A30F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10565,7 +10574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6718F9C-7D7F-4A6D-8C29-1EEB803F98C7}" type="CELLRANGE">
+                    <a:fld id="{942AC1F0-9DC8-4707-91E4-A74D0C20EC31}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10598,7 +10607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09F56F8F-C957-4BDC-B8C4-D3F11CDB4396}" type="CELLRANGE">
+                    <a:fld id="{C23371A3-8C14-442E-8702-F67584E6F23D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10631,7 +10640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37648C97-C515-46EB-AFBE-8EF05DBB5FB9}" type="CELLRANGE">
+                    <a:fld id="{984B3C52-8525-453E-A62C-7E35A5829886}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10664,7 +10673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CDE468F-F922-475B-957E-B1FC07DD163E}" type="CELLRANGE">
+                    <a:fld id="{02A4D5C1-A4ED-48A3-96F6-3A71BBEFC8AE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10697,7 +10706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38BC120C-C316-4D46-B9DC-1001B8CCD81D}" type="CELLRANGE">
+                    <a:fld id="{4D6C3BA0-CFC3-4252-98C4-70D291B5CF5A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10730,7 +10739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E541AC3-7F29-4186-BEE7-D9B78CFD6969}" type="CELLRANGE">
+                    <a:fld id="{BE94E091-6D35-4B3D-8CE2-7A51B6C34269}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10763,7 +10772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9969FBF6-4E86-4402-8362-36B0C7F045F0}" type="CELLRANGE">
+                    <a:fld id="{6421B0F4-A10B-44B3-971C-BC7D9C5AA472}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11312,7 +11321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E67B69B1-7A92-49F3-A0B3-56FA3A95F544}" type="CELLRANGE">
+                    <a:fld id="{BD5AF5F7-03EB-4BCA-9B4A-6855DB1CAF29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11345,7 +11354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6EAF1F9-9F70-45C8-BAA7-B12DE87A1E76}" type="CELLRANGE">
+                    <a:fld id="{B0C93B05-1C51-4589-9F20-615DF4C5A796}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11379,7 +11388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53371F02-5688-45C6-85AB-F725280E1AF3}" type="CELLRANGE">
+                    <a:fld id="{50CF1193-9495-438C-B1AF-2CD05D4F6108}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11413,7 +11422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F51166E0-42D3-41E9-87CB-35CBF6AC0062}" type="CELLRANGE">
+                    <a:fld id="{949BCFC6-7C3B-4EF4-95CC-CFAEA758A37C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11447,7 +11456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8A14E39-9838-4364-8DA1-6A8B202F395D}" type="CELLRANGE">
+                    <a:fld id="{EBC367F0-9E8C-49BE-B5DE-F7D0B5C35D7F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11481,7 +11490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4CFB83C-3973-4B0B-BF55-28FCFDF22A43}" type="CELLRANGE">
+                    <a:fld id="{09347A1D-51FB-4991-B27E-835240A815BD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11727,7 +11736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D33FC03-FE44-4DCB-A0ED-9237404FB37D}" type="CELLRANGE">
+                    <a:fld id="{C67B8BF8-14D6-4BF1-99E0-AC4756DDF986}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11760,7 +11769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B855CC37-B572-48BE-8945-70CA8F1A4BCF}" type="CELLRANGE">
+                    <a:fld id="{F278C3F5-AD21-4484-9DDE-ED7F58286B74}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11794,7 +11803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67602103-87BB-4204-AF8F-E7D0C8182F79}" type="CELLRANGE">
+                    <a:fld id="{2E1A86FE-563A-46BB-AD06-A7B585B02600}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11828,7 +11837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42FA235C-DE6E-4BEE-B038-3F74521A2960}" type="CELLRANGE">
+                    <a:fld id="{98DF69BF-EA29-4E41-ADB7-33B229CA1BB0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11862,7 +11871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44966203-3A97-49DD-9912-EEADDB8685D5}" type="CELLRANGE">
+                    <a:fld id="{BA1E659F-6925-49C4-A2D3-CC1412595A0F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11896,7 +11905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8F4A39C-D6A4-4CCA-9770-A4D6BA459626}" type="CELLRANGE">
+                    <a:fld id="{578FC1B2-8308-4340-BB7A-3C1E721E138D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12142,7 +12151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4452B02-F284-4015-B8D8-97E7B81553F9}" type="CELLRANGE">
+                    <a:fld id="{1885ED73-2096-4009-A25F-846076D38E6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12175,7 +12184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E27BFA5A-1A60-40B9-A472-7C2272815A08}" type="CELLRANGE">
+                    <a:fld id="{DAF8FB4D-C5BF-41BE-A709-F743F481EAB9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12209,7 +12218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C992EC08-9B59-4107-B310-9F75898EFE5E}" type="CELLRANGE">
+                    <a:fld id="{A646747E-12A8-48FA-8EDF-95BF830D50B1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12243,7 +12252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{677322F3-FDC1-4F31-9282-DEAEABA6EEE6}" type="CELLRANGE">
+                    <a:fld id="{4C130951-9EA9-4B99-9924-7C905132E93F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12277,7 +12286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24EF0FBD-4171-4C9B-A3EE-305E556FDF97}" type="CELLRANGE">
+                    <a:fld id="{7081B20C-451D-428C-9828-F00B995DD23A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12311,7 +12320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE09619F-FF41-4850-B84C-DD6901C9F76F}" type="CELLRANGE">
+                    <a:fld id="{E2C4287D-CC9A-4868-8BF8-27ADF38BC540}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13039,7 +13048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{696481C7-B928-48B4-9882-EB1C0CB348E1}" type="CELLRANGE">
+                    <a:fld id="{27A3B819-0729-44EE-91B7-C63DF17B664D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13072,7 +13081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFA8760F-5192-4908-A0A1-1A5F768598C1}" type="CELLRANGE">
+                    <a:fld id="{5E085B0E-2104-42C3-924C-E365961879C1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13105,7 +13114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D56E7064-C6BF-4EC3-BB72-692838C75688}" type="CELLRANGE">
+                    <a:fld id="{FABB569C-CC20-49BD-B5FF-C599071B89C6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13138,7 +13147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C18EC1B4-C581-462C-84FD-43BB6F69411C}" type="CELLRANGE">
+                    <a:fld id="{077C2252-495A-448B-8180-DA593A62B961}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13171,7 +13180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{898BACF1-ECA6-4B3E-8584-F902C80E9FA8}" type="CELLRANGE">
+                    <a:fld id="{1E040893-62A0-4E12-87A9-989013A6F948}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13428,7 +13437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52B93D61-5747-4A64-9F57-3D6D48D96636}" type="CELLRANGE">
+                    <a:fld id="{8D00467B-171E-4CAB-AD12-6F450E52EB1A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13461,7 +13470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D678215-1711-44E5-B34B-8E53C95050B4}" type="CELLRANGE">
+                    <a:fld id="{ED67E4E4-9EE1-4DE4-BDC9-52BBB97CBD80}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13494,7 +13503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F56A404F-A727-4163-BD88-D27538542197}" type="CELLRANGE">
+                    <a:fld id="{F82D29EA-237D-4BB7-B9AC-A22307D1A17C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13527,7 +13536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDBF997F-6206-43BC-A92A-A4EB7EE4D1DA}" type="CELLRANGE">
+                    <a:fld id="{9D798560-8087-456B-878D-A5C544416570}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13560,7 +13569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41F27672-AD47-4F9D-83C6-BB6F7BB3D7E5}" type="CELLRANGE">
+                    <a:fld id="{1DFB164C-6A81-4EBB-8005-BFE1F4719898}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13824,7 +13833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE7081BD-76F9-4CED-937F-AF94485AE21A}" type="CELLRANGE">
+                    <a:fld id="{8F87A73B-E5EF-45E4-BFCD-67E5B9FA95EB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13857,7 +13866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3769509D-84DA-45AA-9122-E34B620300CD}" type="CELLRANGE">
+                    <a:fld id="{5F74B0BD-A31B-4BB9-8600-536B0AD01E30}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13890,7 +13899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{168F05DE-9DDC-4276-B3D5-E399E777A81D}" type="CELLRANGE">
+                    <a:fld id="{4DDB0855-F4B4-44C6-ACCD-893763F420FA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13923,7 +13932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C001DAE0-D80F-4C7E-94C3-FA771ABA6AFC}" type="CELLRANGE">
+                    <a:fld id="{676F77E8-09F9-4428-AC05-4C4B904CF4CA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13956,7 +13965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{094B9CF6-C3A4-4C5A-963A-3701B8888114}" type="CELLRANGE">
+                    <a:fld id="{3CBB54A6-B614-41A5-BB40-DA2E5DB6B7F5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14591,7 +14600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B989EF11-3DCF-42A2-B6E4-E44FC300F00E}" type="CELLRANGE">
+                    <a:fld id="{9680A16A-E9AF-4FBB-8DF1-891F3360DD83}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14625,7 +14634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89755AD6-5381-4135-8D00-C9A16567A700}" type="CELLRANGE">
+                    <a:fld id="{26DCA7E1-2BA3-45EB-B036-B95D57971138}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14659,7 +14668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D3B88DE-1EDF-461E-AE5D-CE9061940877}" type="CELLRANGE">
+                    <a:fld id="{DB332FCF-0AE3-4996-8B59-78A26B2106FE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14693,7 +14702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29DE9BB8-AFDB-4AA0-B5CB-EB639558230C}" type="CELLRANGE">
+                    <a:fld id="{EF1C0240-C3A1-4A1A-A8DB-7B4CF86301FC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14727,7 +14736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A96EE4CF-2536-4259-ABDE-9A578E120489}" type="CELLRANGE">
+                    <a:fld id="{CE33A02C-2B91-4030-9E71-B844A147AB87}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15024,7 +15033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCEB8280-14CB-4718-B808-ED8F5349CCCC}" type="CELLRANGE">
+                    <a:fld id="{A3F4D17E-A751-465E-BA1D-8518E54456E1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15058,7 +15067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A74D4C26-77F6-4C2D-A0F4-32A373ACE88A}" type="CELLRANGE">
+                    <a:fld id="{F0047356-3F04-4AE0-B37F-22B83C4BF374}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15092,7 +15101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCC5E6A2-0730-4B39-9B3B-F41AE75F6CDB}" type="CELLRANGE">
+                    <a:fld id="{476B851E-B297-419C-8422-71AFA5CC63D4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15126,7 +15135,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{542E054A-BEF9-4FBF-8719-1F57519FA512}" type="CELLRANGE">
+                    <a:fld id="{F877F35D-2AA6-42A3-8CC9-080887F30204}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15160,7 +15169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75C2CB88-0F5D-4066-9F2F-FE42C4C9D67C}" type="CELLRANGE">
+                    <a:fld id="{26F06470-8670-4FCE-81C0-B642BA8FCFE2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15457,7 +15466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4704F894-ABA0-4FA3-B5D0-D0572C71BC85}" type="CELLRANGE">
+                    <a:fld id="{4C22B469-21D3-4815-ABA2-DB97276CFEB8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15491,7 +15500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE37FD4F-01A4-4814-88AA-C7834981B540}" type="CELLRANGE">
+                    <a:fld id="{2E18B834-39C2-4883-ADAC-BF880985BDF1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15525,7 +15534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{263BC21E-AD8D-4A25-AB0E-EDFA79FE21CE}" type="CELLRANGE">
+                    <a:fld id="{D45604DD-FF00-4712-BE3F-3739CD61FE37}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15559,7 +15568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{621E2DA4-5856-44F9-95BD-C5CC49B46B15}" type="CELLRANGE">
+                    <a:fld id="{099D2000-8FE5-46D6-A925-7D9DD1BFA161}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15593,7 +15602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83AF3223-EE45-4561-99CC-FB366C93A2E6}" type="CELLRANGE">
+                    <a:fld id="{341D7F30-218A-4C09-8A57-DF89399D5480}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16361,7 +16370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEFD6E08-0D2C-4697-8A20-E93C8EF27576}" type="CELLRANGE">
+                    <a:fld id="{B33AD158-1AD6-47BF-A26C-763DAB4FD4B2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16395,7 +16404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CBEFBA5-D136-4710-8081-B8868EEE3919}" type="CELLRANGE">
+                    <a:fld id="{E66845EE-D352-4EB9-A7C9-DCB7F04284B5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16429,7 +16438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5553051-4C44-47BA-BB47-E85B41373EBC}" type="CELLRANGE">
+                    <a:fld id="{14F3E1B4-2E2B-4952-BF35-4FA2B58E95DE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16463,7 +16472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0653B19-8145-47AE-903C-1111A0686649}" type="CELLRANGE">
+                    <a:fld id="{4E1E69C5-4515-4ED4-82D1-32E6F740A799}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16745,7 +16754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81696D69-38E6-4762-A871-A19CA58288A1}" type="CELLRANGE">
+                    <a:fld id="{5E0DEF30-97E3-4183-9889-D14DCF7AB436}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16779,7 +16788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88F3085B-BD0B-47FA-A186-F47D1F6C46E4}" type="CELLRANGE">
+                    <a:fld id="{1EECB2A4-4FB4-4330-8079-88B9AF8968EB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16813,7 +16822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E67C652A-B0E6-43CA-BF3C-9844C73144C3}" type="CELLRANGE">
+                    <a:fld id="{9A32D837-0711-4A32-B5BE-58C81ECAB632}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16847,7 +16856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67B334CD-F4DD-477A-AD31-29782907D1B6}" type="CELLRANGE">
+                    <a:fld id="{659BCBBE-A907-4813-8ABD-6B73B4C80ADC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17129,7 +17138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACFBE14E-A5A5-4532-AB05-831D29930EFF}" type="CELLRANGE">
+                    <a:fld id="{84239B5F-1EB2-46CD-BE9A-7173FEE052DC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17163,7 +17172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9487E205-6167-45CD-ABC9-E0766A5D7DCB}" type="CELLRANGE">
+                    <a:fld id="{EF50AB8A-DBB8-4C3F-B2AB-F03E7C447F45}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17197,7 +17206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{425701D3-4786-4751-A861-08B49CF040C1}" type="CELLRANGE">
+                    <a:fld id="{64275ABB-ADDA-4941-9315-A97E412DDEBD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17231,7 +17240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D20D7F01-225F-4F28-AB71-CA4087945B37}" type="CELLRANGE">
+                    <a:fld id="{B6558326-4DC6-4FF5-91FB-8510F73BE2A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17851,7 +17860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D294A3A-805C-4711-AB81-8ADE4206149F}" type="CELLRANGE">
+                    <a:fld id="{19066564-3A8B-49E8-800F-2D51CA1E20A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18130,7 +18139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD297F00-82B6-4F2D-ACD7-07B0A11F9DAA}" type="CELLRANGE">
+                    <a:fld id="{B35E9F5C-84D6-42E7-AA2C-B02A00DABECD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18163,7 +18172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E76910AE-DECB-4E79-BFAC-ED3AD1A545E6}" type="CELLRANGE">
+                    <a:fld id="{2424E4D8-37FC-4A24-B38B-DAD364C26429}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18197,7 +18206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD14309E-69CC-4143-89F2-8D278A4E6792}" type="CELLRANGE">
+                    <a:fld id="{B50801EB-9889-4504-A6DB-095BE155507A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18231,7 +18240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A13430B-39B4-457A-AC12-E5DB923329A4}" type="CELLRANGE">
+                    <a:fld id="{71E5051C-541F-4E53-8759-44C7541F50A4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18265,7 +18274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEDD712C-4AE8-4A71-BD2A-BE9B9EEE0176}" type="CELLRANGE">
+                    <a:fld id="{E800EE77-416E-42EC-BDE9-F0A0EB3B5AA8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18514,7 +18523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04E4C76A-B1C5-4AD3-B6F1-F6B0ED13281B}" type="CELLRANGE">
+                    <a:fld id="{32316943-21BD-40E5-A8C2-44EA4D8F1B81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18547,7 +18556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EE9AF38-9549-41A3-ACF4-5CB80259317D}" type="CELLRANGE">
+                    <a:fld id="{AB3C27AF-14EA-443F-8FA5-FCD9DEE7156E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18581,7 +18590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EFDB892-8DD5-41B4-88E6-B5A5D1159356}" type="CELLRANGE">
+                    <a:fld id="{219A1CD8-435D-4AF5-9B8D-0516F768C81D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18615,7 +18624,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13D57F3F-C311-4FEF-ADEF-D700771022D5}" type="CELLRANGE">
+                    <a:fld id="{8E851F0D-0250-4660-8C94-8513DADEA26E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18649,7 +18658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A84740BD-BB8F-4A18-B419-17E1DEB42DA2}" type="CELLRANGE">
+                    <a:fld id="{0E1D29CD-D37E-4242-B884-7A09F3B5D2F6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18898,7 +18907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5F2F039-3E36-49EE-B489-43EC46FE2630}" type="CELLRANGE">
+                    <a:fld id="{21C41246-3898-4E39-BA14-5080F480F648}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18931,7 +18940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{831126DF-97E5-4003-95EA-12340E2E3862}" type="CELLRANGE">
+                    <a:fld id="{B7822BEC-58DC-4E08-B5A1-B9DAC053ABA7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18965,7 +18974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BF2A39D-E054-4CD8-905F-74EEF2B4B214}" type="CELLRANGE">
+                    <a:fld id="{4BE919D9-3EBC-4C10-A409-21F0F53BD54F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18999,7 +19008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C78791D-49BF-4E9B-B87C-1B51EF8A410E}" type="CELLRANGE">
+                    <a:fld id="{7CC95CEA-1E87-49E7-9249-1AAE8E73DFF7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19033,7 +19042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE198218-7946-458E-B1A9-FD56C3AF4378}" type="CELLRANGE">
+                    <a:fld id="{9890A3B5-3C9E-4E7E-9C52-A8A234CEC40E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19290,7 +19299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6294FCD3-FC23-4403-8E1F-0482315F4B6D}" type="CELLRANGE">
+                    <a:fld id="{D2E46C2A-A739-4847-8C71-D9F473278A1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19848,7 +19857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F6B3A7C-21BF-4B48-8E19-FC35D74C6221}" type="CELLRANGE">
+                    <a:fld id="{DD13A75C-8572-4FD7-8208-93CF1F44A154}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20124,7 +20133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15850E5F-90FA-498E-972F-3270B8A61B48}" type="CELLRANGE">
+                    <a:fld id="{1347C0BD-F415-452F-8544-C94260F2B42C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20157,7 +20166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95880B37-49AF-4702-9B57-8A0CF7EC9D8F}" type="CELLRANGE">
+                    <a:fld id="{CF8EEA7F-E1B8-462F-AE6A-A77187EB6476}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20191,7 +20200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01810B79-987C-408F-83E2-5BBCE75E6AB8}" type="CELLRANGE">
+                    <a:fld id="{B5B927F4-FF29-4585-9B97-D6AF22B1BB9D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20225,7 +20234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A56798A1-7BE2-43FD-814F-394885A7539E}" type="CELLRANGE">
+                    <a:fld id="{FBD91680-8F39-499B-A5E5-E7C4C4810BB0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20259,7 +20268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7B3B16E-3598-4556-87F2-AE97683FC800}" type="CELLRANGE">
+                    <a:fld id="{9BD62B3E-A8D3-4682-898E-5981B1558D7C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20508,7 +20517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D169A2B-C309-4AC0-8996-0B7754772D09}" type="CELLRANGE">
+                    <a:fld id="{3011ADA8-C22C-42D0-9803-D307C9ABE5B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20541,7 +20550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A68778FD-0C64-4B33-826A-8CB01F8C3751}" type="CELLRANGE">
+                    <a:fld id="{F98F70B3-8320-46BF-992B-A18AB29AE524}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20575,7 +20584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDF5776F-2F4F-48F9-AAB8-8B09216370B5}" type="CELLRANGE">
+                    <a:fld id="{2ABC20E0-F4DA-46F5-91D2-BCC8F3FB70EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20609,7 +20618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36A8C949-434A-4434-ACEA-41ACD0ADEA32}" type="CELLRANGE">
+                    <a:fld id="{15C916A3-C318-42BF-A4AA-D1BE56C67DEC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20643,7 +20652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09920A5F-5996-410B-8005-10E38366B1E4}" type="CELLRANGE">
+                    <a:fld id="{F17C915A-3175-4535-8E7B-6A66C6842744}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20892,7 +20901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B409A74-6223-4D52-85D9-411BC24AD9EA}" type="CELLRANGE">
+                    <a:fld id="{EC0733BF-8B71-416C-8295-C59CB74112AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20925,7 +20934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82E3EA8F-7548-4F8A-B8F8-B2DED0315E27}" type="CELLRANGE">
+                    <a:fld id="{C32D706B-178E-40D2-AC24-88875F8B0FDB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20959,7 +20968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4890EEF-A1CC-4CCE-B74C-5AFFA92B5A8B}" type="CELLRANGE">
+                    <a:fld id="{7B382FAA-BE4F-4FB0-91D8-CAA755E9E606}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20993,7 +21002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E45161FD-A3A2-48A6-B4BF-D8A10258A7EC}" type="CELLRANGE">
+                    <a:fld id="{9CBD497D-2FAA-4EEA-83FC-4732517D006A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21027,7 +21036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3761050-3CF7-451D-804F-5C5D355836C2}" type="CELLRANGE">
+                    <a:fld id="{05083219-B244-4D10-95D5-66AC15EC91FF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21284,7 +21293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{972D7E95-6F2F-4A91-9D47-4FA2C40206DA}" type="CELLRANGE">
+                    <a:fld id="{C6B2ED1B-864E-4B3D-97B6-4FD321E8A9DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -29742,7 +29751,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -35471,87 +35480,366 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390C6D7-5BE0-4718-A1B9-54C5D7BC45DE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2">
         <v>43302</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>1105</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1">
         <v>10723</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>384</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>4.0380000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1">
         <v>12548</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>339</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>3.4510000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1">
         <v>12760</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>143</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>3.3940000000000001</v>
       </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17084</v>
+      </c>
+      <c r="D6" s="1">
+        <v>414</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1">
+        <v>319923</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13484</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1">
+        <v>68676</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5287</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60922</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2691</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1">
+        <v>58609</v>
+      </c>
+      <c r="D10" s="1">
+        <v>847</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1">
+        <v>65550</v>
+      </c>
+      <c r="D11" s="1">
+        <v>791</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.8810000000000002</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1192448</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48753</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>246599</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7179</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>233434</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3689</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.1079999999999997</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>170410</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5299</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.9980000000000002</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>196487</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2233</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.069</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35560,156 +35848,75 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F4C636-4A78-48E4-994B-4322B72D99B8}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6DDA31-47FD-4BD2-9266-3E429BFCD22E}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.61328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>33165</v>
+      </c>
+      <c r="C2" s="2">
+        <v>484535</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31546</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
-        <v>319923</v>
-      </c>
-      <c r="C2" s="2">
-        <v>13484</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>3323</v>
-      </c>
-      <c r="F2" s="2">
-        <v>135</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1333</v>
-      </c>
-      <c r="H2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="B3" s="1">
-        <v>68676</v>
+        <v>14399</v>
       </c>
       <c r="C3" s="1">
-        <v>5287</v>
+        <v>205766</v>
       </c>
       <c r="D3" s="1">
-        <v>4.6580000000000004</v>
+        <v>17581</v>
       </c>
       <c r="E3" s="1">
-        <v>3460</v>
-      </c>
-      <c r="F3" s="1">
-        <v>247</v>
-      </c>
-      <c r="G3" s="1">
-        <v>787</v>
-      </c>
-      <c r="H3" s="1">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60922</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2691</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.2510000000000003</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3590</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1674</v>
-      </c>
-      <c r="H4" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="1">
-        <v>58609</v>
-      </c>
-      <c r="C5" s="1">
-        <v>847</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4809</v>
-      </c>
-      <c r="F5" s="1">
-        <v>94</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1681</v>
-      </c>
-      <c r="H5" s="1">
-        <v>66</v>
+        <v>2.355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36008,79 +36215,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6DDA31-47FD-4BD2-9266-3E429BFCD22E}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>33165</v>
-      </c>
-      <c r="C2" s="2">
-        <v>484535</v>
-      </c>
-      <c r="D2" s="2">
-        <v>31546</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14399</v>
-      </c>
-      <c r="C3" s="1">
-        <v>205766</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17581</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.355</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22EAA46-6FBA-4256-8E83-43994ABBC60C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -36392,7 +36526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73365E43-655D-4AD2-A8DC-1B48C6D31777}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -36731,7 +36865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C887BC-4B81-4F05-A11B-8E73BCF050BB}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -37000,7 +37134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E4D04D-63A9-480D-AE5C-9A88ED89BF7E}">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -37818,7 +37952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27837F75-5F30-499E-9D65-9601BB837A38}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -38240,7 +38374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CCC418-2241-48AF-8DB2-2FFF7DECEE9F}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -38425,7 +38559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818761FA-5148-43E7-87C9-0C6DF711E8E2}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -38795,7 +38929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6202E9A-39B8-4082-88CE-9D9E46284380}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -39169,7 +39303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A360F3B-A96B-4D2B-BB1C-087711AAB240}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -39544,83 +39678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E6591-96D8-47EC-9B48-42D0825005D1}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>26932</v>
-      </c>
-      <c r="C2" s="2">
-        <v>92.021000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21671</v>
-      </c>
-      <c r="C3" s="1">
-        <v>235.809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>34781</v>
-      </c>
-      <c r="C4" s="1">
-        <v>276.82400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>68110</v>
-      </c>
-      <c r="C5" s="1">
-        <v>340.84699999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1287653-21E1-4D54-AD78-11425E71DB2F}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -39959,7 +40017,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E6591-96D8-47EC-9B48-42D0825005D1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>26932</v>
+      </c>
+      <c r="C2" s="2">
+        <v>92.021000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21671</v>
+      </c>
+      <c r="C3" s="1">
+        <v>235.809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34781</v>
+      </c>
+      <c r="C4" s="1">
+        <v>276.82400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>68110</v>
+      </c>
+      <c r="C5" s="1">
+        <v>340.84699999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F5D2E2-59CA-46D5-8685-361354EB0EF7}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -40228,7 +40362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C2A903-C97F-47C5-B30E-9D154FEB504C}">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -40677,7 +40811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2289479-63B8-47AA-B9CB-25685942A76F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
